--- a/giovinazzo-dati-covid-2021-01-04.xlsx
+++ b/giovinazzo-dati-covid-2021-01-04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC442DD-0394-3547-AF3F-182FE547E011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDCB73-A4C6-D849-80D5-40ABF4A88BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="460" windowWidth="33740" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
                   <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43834</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,7 +1908,7 @@
                   <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>43834</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,7 +2751,7 @@
                   <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>43834</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,7 +4893,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="B150" s="4">
         <v>188</v>
@@ -6114,9 +6114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M135" sqref="M135"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11558,7 +11558,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="B134" s="4">
         <v>460</v>
